--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Tshb-Tshr.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Tshb-Tshr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Tshr</t>
-  </si>
-  <si>
-    <t>M1</t>
   </si>
   <si>
     <t>M2</t>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.85918408352551</v>
+        <v>4.206037999999999</v>
       </c>
       <c r="H2">
-        <v>3.85918408352551</v>
+        <v>12.618114</v>
       </c>
       <c r="I2">
-        <v>0.933474579249185</v>
+        <v>0.9336035417126786</v>
       </c>
       <c r="J2">
-        <v>0.933474579249185</v>
+        <v>0.9336035417126786</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>2.20310720508642</v>
+        <v>0.5187653333333333</v>
       </c>
       <c r="N2">
-        <v>2.20310720508642</v>
+        <v>1.556296</v>
       </c>
       <c r="O2">
-        <v>0.9189648332695114</v>
+        <v>0.1620823073631256</v>
       </c>
       <c r="P2">
-        <v>0.9189648332695114</v>
+        <v>0.1620823073631256</v>
       </c>
       <c r="Q2">
-        <v>8.502196260169884</v>
+        <v>2.181946705082666</v>
       </c>
       <c r="R2">
-        <v>8.502196260169884</v>
+        <v>19.637520345744</v>
       </c>
       <c r="S2">
-        <v>0.8578303110810546</v>
+        <v>0.151320616203177</v>
       </c>
       <c r="T2">
-        <v>0.8578303110810546</v>
+        <v>0.151320616203177</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.85918408352551</v>
+        <v>4.206037999999999</v>
       </c>
       <c r="H3">
-        <v>3.85918408352551</v>
+        <v>12.618114</v>
       </c>
       <c r="I3">
-        <v>0.933474579249185</v>
+        <v>0.9336035417126786</v>
       </c>
       <c r="J3">
-        <v>0.933474579249185</v>
+        <v>0.9336035417126786</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.123689488153447</v>
+        <v>2.233983666666667</v>
       </c>
       <c r="N3">
-        <v>0.123689488153447</v>
+        <v>6.701951000000001</v>
       </c>
       <c r="O3">
-        <v>0.05159362630910416</v>
+        <v>0.6979826986091381</v>
       </c>
       <c r="P3">
-        <v>0.05159362630910416</v>
+        <v>0.6979826986091381</v>
       </c>
       <c r="Q3">
-        <v>0.4773405039811998</v>
+        <v>9.396220193379333</v>
       </c>
       <c r="R3">
-        <v>0.4773405039811998</v>
+        <v>84.565981740414</v>
       </c>
       <c r="S3">
-        <v>0.04816133861083068</v>
+        <v>0.6516391194756644</v>
       </c>
       <c r="T3">
-        <v>0.04816133861083068</v>
+        <v>0.6516391194756644</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,185 +649,185 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.85918408352551</v>
+        <v>4.206037999999999</v>
       </c>
       <c r="H4">
-        <v>3.85918408352551</v>
+        <v>12.618114</v>
       </c>
       <c r="I4">
-        <v>0.933474579249185</v>
+        <v>0.9336035417126786</v>
       </c>
       <c r="J4">
-        <v>0.933474579249185</v>
+        <v>0.9336035417126786</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.0705825375280405</v>
+        <v>0.134921</v>
       </c>
       <c r="N4">
-        <v>0.0705825375280405</v>
+        <v>0.404763</v>
       </c>
       <c r="O4">
-        <v>0.02944154042138428</v>
+        <v>0.04215452650088466</v>
       </c>
       <c r="P4">
-        <v>0.02944154042138428</v>
+        <v>0.04215452650088467</v>
       </c>
       <c r="Q4">
-        <v>0.2723910054030559</v>
+        <v>0.5674828529979998</v>
       </c>
       <c r="R4">
-        <v>0.2723910054030559</v>
+        <v>5.107345676981999</v>
       </c>
       <c r="S4">
-        <v>0.02748292955729956</v>
+        <v>0.03935561524044689</v>
       </c>
       <c r="T4">
-        <v>0.02748292955729956</v>
+        <v>0.0393556152404469</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.140984952361382</v>
+        <v>4.206037999999999</v>
       </c>
       <c r="H5">
-        <v>0.140984952361382</v>
+        <v>12.618114</v>
       </c>
       <c r="I5">
-        <v>0.03410199312539156</v>
+        <v>0.9336035417126786</v>
       </c>
       <c r="J5">
-        <v>0.03410199312539156</v>
+        <v>0.9336035417126786</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.20310720508642</v>
+        <v>0.1447576666666667</v>
       </c>
       <c r="N5">
-        <v>2.20310720508642</v>
+        <v>0.434273</v>
       </c>
       <c r="O5">
-        <v>0.9189648332695114</v>
+        <v>0.04522788072802773</v>
       </c>
       <c r="P5">
-        <v>0.9189648332695114</v>
+        <v>0.04522788072802773</v>
       </c>
       <c r="Q5">
-        <v>0.3106049643561264</v>
+        <v>0.6088562467913333</v>
       </c>
       <c r="R5">
-        <v>0.3106049643561264</v>
+        <v>5.479706221122</v>
       </c>
       <c r="S5">
-        <v>0.03133853242663347</v>
+        <v>0.04222490963184529</v>
       </c>
       <c r="T5">
-        <v>0.03133853242663347</v>
+        <v>0.04222490963184529</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>25</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.140984952361382</v>
+        <v>4.206037999999999</v>
       </c>
       <c r="H6">
-        <v>0.140984952361382</v>
+        <v>12.618114</v>
       </c>
       <c r="I6">
-        <v>0.03410199312539156</v>
+        <v>0.9336035417126786</v>
       </c>
       <c r="J6">
-        <v>0.03410199312539156</v>
+        <v>0.9336035417126786</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.123689488153447</v>
+        <v>0.1682013333333333</v>
       </c>
       <c r="N6">
-        <v>0.123689488153447</v>
+        <v>0.5046040000000001</v>
       </c>
       <c r="O6">
-        <v>0.05159362630910416</v>
+        <v>0.05255258679882402</v>
       </c>
       <c r="P6">
-        <v>0.05159362630910416</v>
+        <v>0.05255258679882403</v>
       </c>
       <c r="Q6">
-        <v>0.01743835659491745</v>
+        <v>0.7074611996506667</v>
       </c>
       <c r="R6">
-        <v>0.01743835659491745</v>
+        <v>6.367150796855999</v>
       </c>
       <c r="S6">
-        <v>0.001759445489707091</v>
+        <v>0.04906328116154506</v>
       </c>
       <c r="T6">
-        <v>0.001759445489707091</v>
+        <v>0.04906328116154508</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,247 +835,929 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.140984952361382</v>
+        <v>0.1526803333333333</v>
       </c>
       <c r="H7">
-        <v>0.140984952361382</v>
+        <v>0.458041</v>
       </c>
       <c r="I7">
-        <v>0.03410199312539156</v>
+        <v>0.03389006469981307</v>
       </c>
       <c r="J7">
-        <v>0.03410199312539156</v>
+        <v>0.03389006469981307</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.0705825375280405</v>
+        <v>0.5187653333333333</v>
       </c>
       <c r="N7">
-        <v>0.0705825375280405</v>
+        <v>1.556296</v>
       </c>
       <c r="O7">
-        <v>0.02944154042138428</v>
+        <v>0.1620823073631256</v>
       </c>
       <c r="P7">
-        <v>0.02944154042138428</v>
+        <v>0.1620823073631256</v>
       </c>
       <c r="Q7">
-        <v>0.009951075690936248</v>
+        <v>0.0792052640151111</v>
       </c>
       <c r="R7">
-        <v>0.009951075690936248</v>
+        <v>0.7128473761359999</v>
       </c>
       <c r="S7">
-        <v>0.001004015209050984</v>
+        <v>0.005492979883231314</v>
       </c>
       <c r="T7">
-        <v>0.001004015209050984</v>
+        <v>0.005492979883231314</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.134045402635408</v>
+        <v>0.1526803333333333</v>
       </c>
       <c r="H8">
-        <v>0.134045402635408</v>
+        <v>0.458041</v>
       </c>
       <c r="I8">
-        <v>0.03242342762542334</v>
+        <v>0.03389006469981307</v>
       </c>
       <c r="J8">
-        <v>0.03242342762542334</v>
+        <v>0.03389006469981307</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.20310720508642</v>
+        <v>2.233983666666667</v>
       </c>
       <c r="N8">
-        <v>2.20310720508642</v>
+        <v>6.701951000000001</v>
       </c>
       <c r="O8">
-        <v>0.9189648332695114</v>
+        <v>0.6979826986091381</v>
       </c>
       <c r="P8">
-        <v>0.9189648332695114</v>
+        <v>0.6979826986091381</v>
       </c>
       <c r="Q8">
-        <v>0.2953163923547776</v>
+        <v>0.3410853708878889</v>
       </c>
       <c r="R8">
-        <v>0.2953163923547776</v>
+        <v>3.069768337991</v>
       </c>
       <c r="S8">
-        <v>0.02979598976182323</v>
+        <v>0.02365467881521381</v>
       </c>
       <c r="T8">
-        <v>0.02979598976182323</v>
+        <v>0.02365467881521381</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.134045402635408</v>
+        <v>0.1526803333333333</v>
       </c>
       <c r="H9">
-        <v>0.134045402635408</v>
+        <v>0.458041</v>
       </c>
       <c r="I9">
-        <v>0.03242342762542334</v>
+        <v>0.03389006469981307</v>
       </c>
       <c r="J9">
-        <v>0.03242342762542334</v>
+        <v>0.03389006469981307</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.123689488153447</v>
+        <v>0.134921</v>
       </c>
       <c r="N9">
-        <v>0.123689488153447</v>
+        <v>0.404763</v>
       </c>
       <c r="O9">
-        <v>0.05159362630910416</v>
+        <v>0.04215452650088466</v>
       </c>
       <c r="P9">
-        <v>0.05159362630910416</v>
+        <v>0.04215452650088467</v>
       </c>
       <c r="Q9">
-        <v>0.01658000724129633</v>
+        <v>0.02059978325366666</v>
       </c>
       <c r="R9">
-        <v>0.01658000724129633</v>
+        <v>0.185398049283</v>
       </c>
       <c r="S9">
-        <v>0.001672842208566376</v>
+        <v>0.001428619630504966</v>
       </c>
       <c r="T9">
-        <v>0.001672842208566376</v>
+        <v>0.001428619630504966</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>26</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.134045402635408</v>
+        <v>0.1526803333333333</v>
       </c>
       <c r="H10">
-        <v>0.134045402635408</v>
+        <v>0.458041</v>
       </c>
       <c r="I10">
-        <v>0.03242342762542334</v>
+        <v>0.03389006469981307</v>
       </c>
       <c r="J10">
-        <v>0.03242342762542334</v>
+        <v>0.03389006469981307</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.0705825375280405</v>
+        <v>0.1447576666666667</v>
       </c>
       <c r="N10">
-        <v>0.0705825375280405</v>
+        <v>0.434273</v>
       </c>
       <c r="O10">
-        <v>0.02944154042138428</v>
+        <v>0.04522788072802773</v>
       </c>
       <c r="P10">
-        <v>0.02944154042138428</v>
+        <v>0.04522788072802773</v>
       </c>
       <c r="Q10">
-        <v>0.009461264661974986</v>
+        <v>0.02210164879922222</v>
       </c>
       <c r="R10">
-        <v>0.009461264661974986</v>
+        <v>0.198914839193</v>
       </c>
       <c r="S10">
-        <v>0.000954595655033729</v>
+        <v>0.001532775804108288</v>
       </c>
       <c r="T10">
-        <v>0.000954595655033729</v>
+        <v>0.001532775804108288</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.1526803333333333</v>
+      </c>
+      <c r="H11">
+        <v>0.458041</v>
+      </c>
+      <c r="I11">
+        <v>0.03389006469981307</v>
+      </c>
+      <c r="J11">
+        <v>0.03389006469981307</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M11">
+        <v>0.1682013333333333</v>
+      </c>
+      <c r="N11">
+        <v>0.5046040000000001</v>
+      </c>
+      <c r="O11">
+        <v>0.05255258679882402</v>
+      </c>
+      <c r="P11">
+        <v>0.05255258679882403</v>
+      </c>
+      <c r="Q11">
+        <v>0.02568103564044445</v>
+      </c>
+      <c r="R11">
+        <v>0.231129320764</v>
+      </c>
+      <c r="S11">
+        <v>0.001781010566754688</v>
+      </c>
+      <c r="T11">
+        <v>0.001781010566754689</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.010732</v>
+      </c>
+      <c r="H12">
+        <v>0.032196</v>
+      </c>
+      <c r="I12">
+        <v>0.002382154704655656</v>
+      </c>
+      <c r="J12">
+        <v>0.002382154704655657</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M12">
+        <v>0.5187653333333333</v>
+      </c>
+      <c r="N12">
+        <v>1.556296</v>
+      </c>
+      <c r="O12">
+        <v>0.1620823073631256</v>
+      </c>
+      <c r="P12">
+        <v>0.1620823073631256</v>
+      </c>
+      <c r="Q12">
+        <v>0.005567389557333333</v>
+      </c>
+      <c r="R12">
+        <v>0.050106506016</v>
+      </c>
+      <c r="S12">
+        <v>0.0003861051310265138</v>
+      </c>
+      <c r="T12">
+        <v>0.0003861051310265138</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.010732</v>
+      </c>
+      <c r="H13">
+        <v>0.032196</v>
+      </c>
+      <c r="I13">
+        <v>0.002382154704655656</v>
+      </c>
+      <c r="J13">
+        <v>0.002382154704655657</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>2.233983666666667</v>
+      </c>
+      <c r="N13">
+        <v>6.701951000000001</v>
+      </c>
+      <c r="O13">
+        <v>0.6979826986091381</v>
+      </c>
+      <c r="P13">
+        <v>0.6979826986091381</v>
+      </c>
+      <c r="Q13">
+        <v>0.02397511271066667</v>
+      </c>
+      <c r="R13">
+        <v>0.2157760143960001</v>
+      </c>
+      <c r="S13">
+        <v>0.001662702769260009</v>
+      </c>
+      <c r="T13">
+        <v>0.00166270276926001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.010732</v>
+      </c>
+      <c r="H14">
+        <v>0.032196</v>
+      </c>
+      <c r="I14">
+        <v>0.002382154704655656</v>
+      </c>
+      <c r="J14">
+        <v>0.002382154704655657</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.134921</v>
+      </c>
+      <c r="N14">
+        <v>0.404763</v>
+      </c>
+      <c r="O14">
+        <v>0.04215452650088466</v>
+      </c>
+      <c r="P14">
+        <v>0.04215452650088467</v>
+      </c>
+      <c r="Q14">
+        <v>0.001447972172</v>
+      </c>
+      <c r="R14">
+        <v>0.013031749548</v>
+      </c>
+      <c r="S14">
+        <v>0.0001004186036266139</v>
+      </c>
+      <c r="T14">
+        <v>0.000100418603626614</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.010732</v>
+      </c>
+      <c r="H15">
+        <v>0.032196</v>
+      </c>
+      <c r="I15">
+        <v>0.002382154704655656</v>
+      </c>
+      <c r="J15">
+        <v>0.002382154704655657</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.1447576666666667</v>
+      </c>
+      <c r="N15">
+        <v>0.434273</v>
+      </c>
+      <c r="O15">
+        <v>0.04522788072802773</v>
+      </c>
+      <c r="P15">
+        <v>0.04522788072802773</v>
+      </c>
+      <c r="Q15">
+        <v>0.001553539278666667</v>
+      </c>
+      <c r="R15">
+        <v>0.013981853508</v>
+      </c>
+      <c r="S15">
+        <v>0.0001077398088578762</v>
+      </c>
+      <c r="T15">
+        <v>0.0001077398088578762</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.010732</v>
+      </c>
+      <c r="H16">
+        <v>0.032196</v>
+      </c>
+      <c r="I16">
+        <v>0.002382154704655656</v>
+      </c>
+      <c r="J16">
+        <v>0.002382154704655657</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.1682013333333333</v>
+      </c>
+      <c r="N16">
+        <v>0.5046040000000001</v>
+      </c>
+      <c r="O16">
+        <v>0.05255258679882402</v>
+      </c>
+      <c r="P16">
+        <v>0.05255258679882403</v>
+      </c>
+      <c r="Q16">
+        <v>0.001805136709333334</v>
+      </c>
+      <c r="R16">
+        <v>0.016246230384</v>
+      </c>
+      <c r="S16">
+        <v>0.0001251883918846434</v>
+      </c>
+      <c r="T16">
+        <v>0.0001251883918846434</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.1357146666666667</v>
+      </c>
+      <c r="H17">
+        <v>0.407144</v>
+      </c>
+      <c r="I17">
+        <v>0.0301242388828526</v>
+      </c>
+      <c r="J17">
+        <v>0.0301242388828526</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M17">
+        <v>0.5187653333333333</v>
+      </c>
+      <c r="N17">
+        <v>1.556296</v>
+      </c>
+      <c r="O17">
+        <v>0.1620823073631256</v>
+      </c>
+      <c r="P17">
+        <v>0.1620823073631256</v>
+      </c>
+      <c r="Q17">
+        <v>0.07040406429155555</v>
+      </c>
+      <c r="R17">
+        <v>0.6336365786239999</v>
+      </c>
+      <c r="S17">
+        <v>0.004882606145690735</v>
+      </c>
+      <c r="T17">
+        <v>0.004882606145690735</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.1357146666666667</v>
+      </c>
+      <c r="H18">
+        <v>0.407144</v>
+      </c>
+      <c r="I18">
+        <v>0.0301242388828526</v>
+      </c>
+      <c r="J18">
+        <v>0.0301242388828526</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>2.233983666666667</v>
+      </c>
+      <c r="N18">
+        <v>6.701951000000001</v>
+      </c>
+      <c r="O18">
+        <v>0.6979826986091381</v>
+      </c>
+      <c r="P18">
+        <v>0.6979826986091381</v>
+      </c>
+      <c r="Q18">
+        <v>0.3031843486604445</v>
+      </c>
+      <c r="R18">
+        <v>2.728659137944</v>
+      </c>
+      <c r="S18">
+        <v>0.02102619754899979</v>
+      </c>
+      <c r="T18">
+        <v>0.02102619754899979</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.1357146666666667</v>
+      </c>
+      <c r="H19">
+        <v>0.407144</v>
+      </c>
+      <c r="I19">
+        <v>0.0301242388828526</v>
+      </c>
+      <c r="J19">
+        <v>0.0301242388828526</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.134921</v>
+      </c>
+      <c r="N19">
+        <v>0.404763</v>
+      </c>
+      <c r="O19">
+        <v>0.04215452650088466</v>
+      </c>
+      <c r="P19">
+        <v>0.04215452650088467</v>
+      </c>
+      <c r="Q19">
+        <v>0.01831075854133333</v>
+      </c>
+      <c r="R19">
+        <v>0.164796826872</v>
+      </c>
+      <c r="S19">
+        <v>0.00126987302630619</v>
+      </c>
+      <c r="T19">
+        <v>0.001269873026306191</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.1357146666666667</v>
+      </c>
+      <c r="H20">
+        <v>0.407144</v>
+      </c>
+      <c r="I20">
+        <v>0.0301242388828526</v>
+      </c>
+      <c r="J20">
+        <v>0.0301242388828526</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>0.1447576666666667</v>
+      </c>
+      <c r="N20">
+        <v>0.434273</v>
+      </c>
+      <c r="O20">
+        <v>0.04522788072802773</v>
+      </c>
+      <c r="P20">
+        <v>0.04522788072802773</v>
+      </c>
+      <c r="Q20">
+        <v>0.01964573847911111</v>
+      </c>
+      <c r="R20">
+        <v>0.176811646312</v>
+      </c>
+      <c r="S20">
+        <v>0.001362455483216273</v>
+      </c>
+      <c r="T20">
+        <v>0.001362455483216273</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.1357146666666667</v>
+      </c>
+      <c r="H21">
+        <v>0.407144</v>
+      </c>
+      <c r="I21">
+        <v>0.0301242388828526</v>
+      </c>
+      <c r="J21">
+        <v>0.0301242388828526</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M21">
+        <v>0.1682013333333333</v>
+      </c>
+      <c r="N21">
+        <v>0.5046040000000001</v>
+      </c>
+      <c r="O21">
+        <v>0.05255258679882402</v>
+      </c>
+      <c r="P21">
+        <v>0.05255258679882403</v>
+      </c>
+      <c r="Q21">
+        <v>0.02282738788622222</v>
+      </c>
+      <c r="R21">
+        <v>0.205446490976</v>
+      </c>
+      <c r="S21">
+        <v>0.001583106678639621</v>
+      </c>
+      <c r="T21">
+        <v>0.001583106678639621</v>
       </c>
     </row>
   </sheetData>
